--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2702,28 +2702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3089.109815950217</v>
+        <v>3382.731288641887</v>
       </c>
       <c r="AB2" t="n">
-        <v>4226.656332090113</v>
+        <v>4628.40218469203</v>
       </c>
       <c r="AC2" t="n">
-        <v>3823.270183904693</v>
+        <v>4186.673976188114</v>
       </c>
       <c r="AD2" t="n">
-        <v>3089109.815950217</v>
+        <v>3382731.288641887</v>
       </c>
       <c r="AE2" t="n">
-        <v>4226656.332090113</v>
+        <v>4628402.184692031</v>
       </c>
       <c r="AF2" t="n">
         <v>2.676720397589798e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.63333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3823270.183904693</v>
+        <v>4186673.976188113</v>
       </c>
     </row>
     <row r="3">
@@ -2808,28 +2808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1091.25197173902</v>
+        <v>1238.046636405322</v>
       </c>
       <c r="AB3" t="n">
-        <v>1493.099090372584</v>
+        <v>1693.950026692561</v>
       </c>
       <c r="AC3" t="n">
-        <v>1350.599808765159</v>
+        <v>1532.281813618817</v>
       </c>
       <c r="AD3" t="n">
-        <v>1091251.97173902</v>
+        <v>1238046.636405322</v>
       </c>
       <c r="AE3" t="n">
-        <v>1493099.090372584</v>
+        <v>1693950.026692561</v>
       </c>
       <c r="AF3" t="n">
         <v>5.062263639629792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.00416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1350599.808765159</v>
+        <v>1532281.813618817</v>
       </c>
     </row>
     <row r="4">
@@ -2914,28 +2914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>825.9413838599437</v>
+        <v>953.1248405667679</v>
       </c>
       <c r="AB4" t="n">
-        <v>1130.089439359369</v>
+        <v>1304.107455763756</v>
       </c>
       <c r="AC4" t="n">
-        <v>1022.2352893574</v>
+        <v>1179.645270511972</v>
       </c>
       <c r="AD4" t="n">
-        <v>825941.3838599437</v>
+        <v>953124.840566768</v>
       </c>
       <c r="AE4" t="n">
-        <v>1130089.439359369</v>
+        <v>1304107.455763756</v>
       </c>
       <c r="AF4" t="n">
         <v>5.948979065456752e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.38333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1022235.2893574</v>
+        <v>1179645.270511972</v>
       </c>
     </row>
     <row r="5">
@@ -3020,28 +3020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>718.3407297491652</v>
+        <v>845.5573408449129</v>
       </c>
       <c r="AB5" t="n">
-        <v>982.8654773991695</v>
+        <v>1156.92885710115</v>
       </c>
       <c r="AC5" t="n">
-        <v>889.0621756965535</v>
+        <v>1046.513190739264</v>
       </c>
       <c r="AD5" t="n">
-        <v>718340.7297491652</v>
+        <v>845557.3408449129</v>
       </c>
       <c r="AE5" t="n">
-        <v>982865.4773991696</v>
+        <v>1156928.85710115</v>
       </c>
       <c r="AF5" t="n">
         <v>6.360318591796192e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.67916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>889062.1756965534</v>
+        <v>1046513.190739264</v>
       </c>
     </row>
     <row r="6">
@@ -3126,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>718.2421685702199</v>
+        <v>845.4587796659674</v>
       </c>
       <c r="AB6" t="n">
-        <v>982.7306216459243</v>
+        <v>1156.794001347904</v>
       </c>
       <c r="AC6" t="n">
-        <v>888.9401903871266</v>
+        <v>1046.391205429837</v>
       </c>
       <c r="AD6" t="n">
-        <v>718242.1685702199</v>
+        <v>845458.7796659674</v>
       </c>
       <c r="AE6" t="n">
-        <v>982730.6216459243</v>
+        <v>1156794.001347904</v>
       </c>
       <c r="AF6" t="n">
         <v>6.36898233639858e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.64166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>888940.1903871265</v>
+        <v>1046391.205429837</v>
       </c>
     </row>
     <row r="7">
@@ -3232,28 +3232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>718.9409987571837</v>
+        <v>846.1576098529314</v>
       </c>
       <c r="AB7" t="n">
-        <v>983.6867919379399</v>
+        <v>1157.75017163992</v>
       </c>
       <c r="AC7" t="n">
-        <v>889.8051051284659</v>
+        <v>1047.256120171177</v>
       </c>
       <c r="AD7" t="n">
-        <v>718940.9987571837</v>
+        <v>846157.6098529313</v>
       </c>
       <c r="AE7" t="n">
-        <v>983686.7919379399</v>
+        <v>1157750.17163992</v>
       </c>
       <c r="AF7" t="n">
         <v>6.379529503740617e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.60416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>889805.1051284659</v>
+        <v>1047256.120171177</v>
       </c>
     </row>
   </sheetData>
@@ -3529,28 +3529,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1899.598074671077</v>
+        <v>2131.862923436111</v>
       </c>
       <c r="AB2" t="n">
-        <v>2599.113890117408</v>
+        <v>2916.908902999671</v>
       </c>
       <c r="AC2" t="n">
-        <v>2351.058108323858</v>
+        <v>2638.523211204739</v>
       </c>
       <c r="AD2" t="n">
-        <v>1899598.074671078</v>
+        <v>2131862.923436111</v>
       </c>
       <c r="AE2" t="n">
-        <v>2599113.890117408</v>
+        <v>2916908.902999671</v>
       </c>
       <c r="AF2" t="n">
         <v>3.761392626303437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.65833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2351058.108323858</v>
+        <v>2638523.211204739</v>
       </c>
     </row>
     <row r="3">
@@ -3635,28 +3635,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>857.4978862076538</v>
+        <v>992.9582545014629</v>
       </c>
       <c r="AB3" t="n">
-        <v>1173.266438046135</v>
+        <v>1358.609290035402</v>
       </c>
       <c r="AC3" t="n">
-        <v>1061.291535888799</v>
+        <v>1228.945526214538</v>
       </c>
       <c r="AD3" t="n">
-        <v>857497.8862076538</v>
+        <v>992958.2545014629</v>
       </c>
       <c r="AE3" t="n">
-        <v>1173266.438046135</v>
+        <v>1358609.290035402</v>
       </c>
       <c r="AF3" t="n">
         <v>6.104534975693646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.13333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1061291.535888799</v>
+        <v>1228945.526214538</v>
       </c>
     </row>
     <row r="4">
@@ -3741,28 +3741,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>693.5079408738922</v>
+        <v>819.2535945988124</v>
       </c>
       <c r="AB4" t="n">
-        <v>948.8881601146956</v>
+        <v>1120.93891104785</v>
       </c>
       <c r="AC4" t="n">
-        <v>858.3276058862452</v>
+        <v>1013.958074625085</v>
       </c>
       <c r="AD4" t="n">
-        <v>693507.9408738922</v>
+        <v>819253.5945988124</v>
       </c>
       <c r="AE4" t="n">
-        <v>948888.1601146956</v>
+        <v>1120938.91104785</v>
       </c>
       <c r="AF4" t="n">
         <v>6.832413496190233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.13333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>858327.6058862453</v>
+        <v>1013958.074625085</v>
       </c>
     </row>
     <row r="5">
@@ -3847,28 +3847,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>694.4563621577523</v>
+        <v>820.2020158826725</v>
       </c>
       <c r="AB5" t="n">
-        <v>950.1858319566671</v>
+        <v>1122.236582889822</v>
       </c>
       <c r="AC5" t="n">
-        <v>859.5014297489128</v>
+        <v>1015.131898487753</v>
       </c>
       <c r="AD5" t="n">
-        <v>694456.3621577523</v>
+        <v>820202.0158826725</v>
       </c>
       <c r="AE5" t="n">
-        <v>950185.8319566671</v>
+        <v>1122236.582889822</v>
       </c>
       <c r="AF5" t="n">
         <v>6.838595929829786e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.1125</v>
       </c>
       <c r="AH5" t="n">
-        <v>859501.4297489128</v>
+        <v>1015131.898487753</v>
       </c>
     </row>
     <row r="6">
@@ -3953,28 +3953,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>695.3447284396119</v>
+        <v>811.4781638519858</v>
       </c>
       <c r="AB6" t="n">
-        <v>951.4013338954619</v>
+        <v>1110.300223672248</v>
       </c>
       <c r="AC6" t="n">
-        <v>860.6009258886369</v>
+        <v>1004.334728641118</v>
       </c>
       <c r="AD6" t="n">
-        <v>695344.728439612</v>
+        <v>811478.1638519857</v>
       </c>
       <c r="AE6" t="n">
-        <v>951401.3338954619</v>
+        <v>1110300.223672247</v>
       </c>
       <c r="AF6" t="n">
         <v>6.849312148138343e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.075</v>
       </c>
       <c r="AH6" t="n">
-        <v>860600.9258886368</v>
+        <v>1004334.728641118</v>
       </c>
     </row>
   </sheetData>
@@ -4250,28 +4250,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>674.7568358329339</v>
+        <v>815.054896510051</v>
       </c>
       <c r="AB2" t="n">
-        <v>923.2320709572858</v>
+        <v>1115.19406708932</v>
       </c>
       <c r="AC2" t="n">
-        <v>835.1200978694717</v>
+        <v>1008.761510511018</v>
       </c>
       <c r="AD2" t="n">
-        <v>674756.8358329339</v>
+        <v>815054.896510051</v>
       </c>
       <c r="AE2" t="n">
-        <v>923232.0709572858</v>
+        <v>1115194.06708932</v>
       </c>
       <c r="AF2" t="n">
         <v>8.334213683222174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.7625</v>
       </c>
       <c r="AH2" t="n">
-        <v>835120.0978694716</v>
+        <v>1008761.510511018</v>
       </c>
     </row>
     <row r="3">
@@ -4356,28 +4356,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>665.6405445449901</v>
+        <v>796.5499690934571</v>
       </c>
       <c r="AB3" t="n">
-        <v>910.7587590347342</v>
+        <v>1089.874809018156</v>
       </c>
       <c r="AC3" t="n">
-        <v>823.837221330405</v>
+        <v>985.8586868943643</v>
       </c>
       <c r="AD3" t="n">
-        <v>665640.5445449902</v>
+        <v>796549.9690934571</v>
       </c>
       <c r="AE3" t="n">
-        <v>910758.7590347342</v>
+        <v>1089874.809018156</v>
       </c>
       <c r="AF3" t="n">
         <v>8.448120931740016e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>823837.221330405</v>
+        <v>985858.6868943643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>668.6763310332793</v>
+        <v>799.5857555817461</v>
       </c>
       <c r="AB4" t="n">
-        <v>914.9124560374589</v>
+        <v>1094.028506020881</v>
       </c>
       <c r="AC4" t="n">
-        <v>827.5944953209402</v>
+        <v>989.6159608848993</v>
       </c>
       <c r="AD4" t="n">
-        <v>668676.3310332793</v>
+        <v>799585.7555817461</v>
       </c>
       <c r="AE4" t="n">
-        <v>914912.456037459</v>
+        <v>1094028.506020881</v>
       </c>
       <c r="AF4" t="n">
         <v>8.448120931740016e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>827594.4953209402</v>
+        <v>989615.9608848994</v>
       </c>
     </row>
   </sheetData>
@@ -4759,28 +4759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>953.9332832667938</v>
+        <v>1115.102810032154</v>
       </c>
       <c r="AB2" t="n">
-        <v>1305.213602731906</v>
+        <v>1525.732859549973</v>
       </c>
       <c r="AC2" t="n">
-        <v>1180.645848365969</v>
+        <v>1380.11905681404</v>
       </c>
       <c r="AD2" t="n">
-        <v>953933.2832667937</v>
+        <v>1115102.810032154</v>
       </c>
       <c r="AE2" t="n">
-        <v>1305213.602731906</v>
+        <v>1525732.859549973</v>
       </c>
       <c r="AF2" t="n">
         <v>6.299240111302827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.95416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1180645.848365969</v>
+        <v>1380119.05681404</v>
       </c>
     </row>
     <row r="3">
@@ -4865,28 +4865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>658.3851433960174</v>
+        <v>791.1069597759409</v>
       </c>
       <c r="AB3" t="n">
-        <v>900.8315990970015</v>
+        <v>1082.427443541307</v>
       </c>
       <c r="AC3" t="n">
-        <v>814.8574956042729</v>
+        <v>979.1220875261824</v>
       </c>
       <c r="AD3" t="n">
-        <v>658385.1433960174</v>
+        <v>791106.959775941</v>
       </c>
       <c r="AE3" t="n">
-        <v>900831.5990970015</v>
+        <v>1082427.443541307</v>
       </c>
       <c r="AF3" t="n">
         <v>7.805796746590691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.59166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>814857.4956042729</v>
+        <v>979122.0875261824</v>
       </c>
     </row>
     <row r="4">
@@ -4971,28 +4971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>659.7219681840085</v>
+        <v>792.4437845639321</v>
       </c>
       <c r="AB4" t="n">
-        <v>902.660701748478</v>
+        <v>1084.256546192784</v>
       </c>
       <c r="AC4" t="n">
-        <v>816.5120312658544</v>
+        <v>980.7766231877639</v>
       </c>
       <c r="AD4" t="n">
-        <v>659721.9681840085</v>
+        <v>792443.7845639321</v>
       </c>
       <c r="AE4" t="n">
-        <v>902660.701748478</v>
+        <v>1084256.546192784</v>
       </c>
       <c r="AF4" t="n">
         <v>7.816258945446856e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.55833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>816512.0312658544</v>
+        <v>980776.6231877638</v>
       </c>
     </row>
   </sheetData>
@@ -5268,28 +5268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>686.7447097380567</v>
+        <v>834.7304353781109</v>
       </c>
       <c r="AB2" t="n">
-        <v>939.6344089019461</v>
+        <v>1142.115007392113</v>
       </c>
       <c r="AC2" t="n">
-        <v>849.9570197015192</v>
+        <v>1033.113154055089</v>
       </c>
       <c r="AD2" t="n">
-        <v>686744.7097380568</v>
+        <v>834730.4353781109</v>
       </c>
       <c r="AE2" t="n">
-        <v>939634.4089019462</v>
+        <v>1142115.007392113</v>
       </c>
       <c r="AF2" t="n">
         <v>8.8900842900055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.88333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>849957.0197015193</v>
+        <v>1033113.154055089</v>
       </c>
     </row>
     <row r="3">
@@ -5374,28 +5374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>688.5880007511666</v>
+        <v>836.5737263912207</v>
       </c>
       <c r="AB3" t="n">
-        <v>942.1564809863431</v>
+        <v>1144.63707947651</v>
       </c>
       <c r="AC3" t="n">
-        <v>852.238388765932</v>
+        <v>1035.394523119502</v>
       </c>
       <c r="AD3" t="n">
-        <v>688588.0007511666</v>
+        <v>836573.7263912207</v>
       </c>
       <c r="AE3" t="n">
-        <v>942156.4809863431</v>
+        <v>1144637.07947651</v>
       </c>
       <c r="AF3" t="n">
         <v>8.909192831690215e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.81666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>852238.3887659319</v>
+        <v>1035394.523119502</v>
       </c>
     </row>
   </sheetData>
@@ -5671,28 +5671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2135.88950712315</v>
+        <v>2378.477073948556</v>
       </c>
       <c r="AB2" t="n">
-        <v>2922.418252440614</v>
+        <v>3254.337263579444</v>
       </c>
       <c r="AC2" t="n">
-        <v>2643.506756067459</v>
+        <v>2943.747882634336</v>
       </c>
       <c r="AD2" t="n">
-        <v>2135889.50712315</v>
+        <v>2378477.073948556</v>
       </c>
       <c r="AE2" t="n">
-        <v>2922418.252440614</v>
+        <v>3254337.263579444</v>
       </c>
       <c r="AF2" t="n">
         <v>3.460575705063343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.42916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2643506.756067459</v>
+        <v>2943747.882634336</v>
       </c>
     </row>
     <row r="3">
@@ -5777,28 +5777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>905.7349460411735</v>
+        <v>1051.334711104794</v>
       </c>
       <c r="AB3" t="n">
-        <v>1239.266511379245</v>
+        <v>1438.482533347584</v>
       </c>
       <c r="AC3" t="n">
-        <v>1120.992654854682</v>
+        <v>1301.195779287805</v>
       </c>
       <c r="AD3" t="n">
-        <v>905734.9460411735</v>
+        <v>1051334.711104794</v>
       </c>
       <c r="AE3" t="n">
-        <v>1239266.511379245</v>
+        <v>1438482.533347584</v>
       </c>
       <c r="AF3" t="n">
         <v>5.816293034742097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1120992.654854682</v>
+        <v>1301195.779287805</v>
       </c>
     </row>
     <row r="4">
@@ -5883,28 +5883,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>710.6291557477368</v>
+        <v>836.7437436059995</v>
       </c>
       <c r="AB4" t="n">
-        <v>972.3141616397811</v>
+        <v>1144.8697045304</v>
       </c>
       <c r="AC4" t="n">
-        <v>879.5178627043763</v>
+        <v>1035.604946764741</v>
       </c>
       <c r="AD4" t="n">
-        <v>710629.1557477368</v>
+        <v>836743.7436059995</v>
       </c>
       <c r="AE4" t="n">
-        <v>972314.1616397811</v>
+        <v>1144869.7045304</v>
       </c>
       <c r="AF4" t="n">
         <v>6.653684784851567e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>879517.8627043763</v>
+        <v>1035604.946764741</v>
       </c>
     </row>
     <row r="5">
@@ -5989,28 +5989,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>691.3505226586839</v>
+        <v>817.532430324651</v>
       </c>
       <c r="AB5" t="n">
-        <v>945.9362853340732</v>
+        <v>1118.583938155534</v>
       </c>
       <c r="AC5" t="n">
-        <v>855.6574538917033</v>
+        <v>1011.827857040386</v>
       </c>
       <c r="AD5" t="n">
-        <v>691350.5226586838</v>
+        <v>817532.4303246511</v>
       </c>
       <c r="AE5" t="n">
-        <v>945936.2853340732</v>
+        <v>1118583.938155534</v>
       </c>
       <c r="AF5" t="n">
         <v>6.721657506162086e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.93333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>855657.4538917033</v>
+        <v>1011827.857040386</v>
       </c>
     </row>
     <row r="6">
@@ -6095,28 +6095,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>692.9100680737739</v>
+        <v>819.091975739741</v>
       </c>
       <c r="AB6" t="n">
-        <v>948.0701241732874</v>
+        <v>1120.717776994748</v>
       </c>
       <c r="AC6" t="n">
-        <v>857.5876421469642</v>
+        <v>1013.758045295647</v>
       </c>
       <c r="AD6" t="n">
-        <v>692910.0680737739</v>
+        <v>819091.975739741</v>
       </c>
       <c r="AE6" t="n">
-        <v>948070.1241732873</v>
+        <v>1120717.776994748</v>
       </c>
       <c r="AF6" t="n">
         <v>6.722059711613628e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.92916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>857587.6421469642</v>
+        <v>1013758.045295647</v>
       </c>
     </row>
     <row r="7">
@@ -6201,28 +6201,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>693.4937839082307</v>
+        <v>819.6756915741977</v>
       </c>
       <c r="AB7" t="n">
-        <v>948.8687899297162</v>
+        <v>1121.516442751177</v>
       </c>
       <c r="AC7" t="n">
-        <v>858.3100843645341</v>
+        <v>1014.480487513217</v>
       </c>
       <c r="AD7" t="n">
-        <v>693493.7839082307</v>
+        <v>819675.6915741977</v>
       </c>
       <c r="AE7" t="n">
-        <v>948868.7899297161</v>
+        <v>1121516.442751177</v>
       </c>
       <c r="AF7" t="n">
         <v>6.732919258805249e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.89166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>858310.0843645341</v>
+        <v>1014480.487513217</v>
       </c>
     </row>
   </sheetData>
@@ -6498,28 +6498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>724.262373414131</v>
+        <v>880.3827003608302</v>
       </c>
       <c r="AB2" t="n">
-        <v>990.9677315060563</v>
+        <v>1204.578450377257</v>
       </c>
       <c r="AC2" t="n">
-        <v>896.3911620430641</v>
+        <v>1089.615173709724</v>
       </c>
       <c r="AD2" t="n">
-        <v>724262.373414131</v>
+        <v>880382.7003608302</v>
       </c>
       <c r="AE2" t="n">
-        <v>990967.7315060564</v>
+        <v>1204578.450377257</v>
       </c>
       <c r="AF2" t="n">
         <v>9.101582942994721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.00833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>896391.1620430641</v>
+        <v>1089615.173709724</v>
       </c>
     </row>
     <row r="3">
@@ -6604,28 +6604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>718.6403478415695</v>
+        <v>874.8279945959732</v>
       </c>
       <c r="AB3" t="n">
-        <v>983.2754280914145</v>
+        <v>1196.978256893457</v>
       </c>
       <c r="AC3" t="n">
-        <v>889.4330012701002</v>
+        <v>1082.740332025079</v>
       </c>
       <c r="AD3" t="n">
-        <v>718640.3478415695</v>
+        <v>874827.9945959732</v>
       </c>
       <c r="AE3" t="n">
-        <v>983275.4280914145</v>
+        <v>1196978.256893456</v>
       </c>
       <c r="AF3" t="n">
         <v>9.110234637807453e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.975</v>
       </c>
       <c r="AH3" t="n">
-        <v>889433.0012701002</v>
+        <v>1082740.332025079</v>
       </c>
     </row>
   </sheetData>
@@ -6901,28 +6901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1355.00355413167</v>
+        <v>1546.73826438475</v>
       </c>
       <c r="AB2" t="n">
-        <v>1853.975641300802</v>
+        <v>2116.315530607495</v>
       </c>
       <c r="AC2" t="n">
-        <v>1677.034808166208</v>
+        <v>1914.337346633817</v>
       </c>
       <c r="AD2" t="n">
-        <v>1355003.55413167</v>
+        <v>1546738.264384751</v>
       </c>
       <c r="AE2" t="n">
-        <v>1853975.641300802</v>
+        <v>2116315.530607495</v>
       </c>
       <c r="AF2" t="n">
         <v>4.827684910115269e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.68333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1677034.808166208</v>
+        <v>1914337.346633817</v>
       </c>
     </row>
     <row r="3">
@@ -7007,28 +7007,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>697.8076774246504</v>
+        <v>822.3901268036557</v>
       </c>
       <c r="AB3" t="n">
-        <v>954.7712493544317</v>
+        <v>1125.230452784552</v>
       </c>
       <c r="AC3" t="n">
-        <v>863.6492213459087</v>
+        <v>1017.840037641653</v>
       </c>
       <c r="AD3" t="n">
-        <v>697807.6774246504</v>
+        <v>822390.1268036556</v>
       </c>
       <c r="AE3" t="n">
-        <v>954771.2493544316</v>
+        <v>1125230.452784552</v>
       </c>
       <c r="AF3" t="n">
         <v>7.141585503405757e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.15</v>
       </c>
       <c r="AH3" t="n">
-        <v>863649.2213459087</v>
+        <v>1017840.037641653</v>
       </c>
     </row>
     <row r="4">
@@ -7113,28 +7113,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>668.7745651177332</v>
+        <v>793.4243343044428</v>
       </c>
       <c r="AB4" t="n">
-        <v>915.0468642455905</v>
+        <v>1085.598177606552</v>
       </c>
       <c r="AC4" t="n">
-        <v>827.7160757983308</v>
+        <v>981.9902111823936</v>
       </c>
       <c r="AD4" t="n">
-        <v>668774.5651177332</v>
+        <v>793424.3343044429</v>
       </c>
       <c r="AE4" t="n">
-        <v>915046.8642455905</v>
+        <v>1085598.177606552</v>
       </c>
       <c r="AF4" t="n">
         <v>7.28679251332753e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>827716.0757983308</v>
+        <v>981990.2111823936</v>
       </c>
     </row>
     <row r="5">
@@ -7219,28 +7219,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>670.9712817266103</v>
+        <v>795.6210509133199</v>
       </c>
       <c r="AB5" t="n">
-        <v>918.0525088221533</v>
+        <v>1088.603822183115</v>
       </c>
       <c r="AC5" t="n">
-        <v>830.434865874955</v>
+        <v>984.7090012590178</v>
       </c>
       <c r="AD5" t="n">
-        <v>670971.2817266103</v>
+        <v>795621.0509133199</v>
       </c>
       <c r="AE5" t="n">
-        <v>918052.5088221533</v>
+        <v>1088603.822183114</v>
       </c>
       <c r="AF5" t="n">
         <v>7.28724068311124e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>830434.865874955</v>
+        <v>984709.0012590177</v>
       </c>
     </row>
   </sheetData>
@@ -7516,28 +7516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1702.959587928155</v>
+        <v>1915.182092237128</v>
       </c>
       <c r="AB2" t="n">
-        <v>2330.064437477963</v>
+        <v>2620.436630469611</v>
       </c>
       <c r="AC2" t="n">
-        <v>2107.686357831043</v>
+        <v>2370.345836263501</v>
       </c>
       <c r="AD2" t="n">
-        <v>1702959.587928155</v>
+        <v>1915182.092237128</v>
       </c>
       <c r="AE2" t="n">
-        <v>2330064.437477963</v>
+        <v>2620436.630469611</v>
       </c>
       <c r="AF2" t="n">
         <v>4.082267018452406e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.17916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2107686.357831043</v>
+        <v>2370345.836263501</v>
       </c>
     </row>
     <row r="3">
@@ -7622,28 +7622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>798.8449050478421</v>
+        <v>933.8586858893763</v>
       </c>
       <c r="AB3" t="n">
-        <v>1093.014841636375</v>
+        <v>1277.746652971391</v>
       </c>
       <c r="AC3" t="n">
-        <v>988.6990392065635</v>
+        <v>1155.800305740492</v>
       </c>
       <c r="AD3" t="n">
-        <v>798844.9050478421</v>
+        <v>933858.6858893762</v>
       </c>
       <c r="AE3" t="n">
-        <v>1093014.841636375</v>
+        <v>1277746.652971391</v>
       </c>
       <c r="AF3" t="n">
         <v>6.425869016610574e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.42916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>988699.0392065635</v>
+        <v>1155800.305740492</v>
       </c>
     </row>
     <row r="4">
@@ -7728,28 +7728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>685.5560987319602</v>
+        <v>810.9187891400643</v>
       </c>
       <c r="AB4" t="n">
-        <v>938.008098885588</v>
+        <v>1109.534862513526</v>
       </c>
       <c r="AC4" t="n">
-        <v>848.4859224305819</v>
+        <v>1003.642412477194</v>
       </c>
       <c r="AD4" t="n">
-        <v>685556.0987319602</v>
+        <v>810918.7891400643</v>
       </c>
       <c r="AE4" t="n">
-        <v>938008.098885588</v>
+        <v>1109534.862513526</v>
       </c>
       <c r="AF4" t="n">
         <v>6.970312296688112e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.2875</v>
       </c>
       <c r="AH4" t="n">
-        <v>848485.9224305819</v>
+        <v>1003642.412477194</v>
       </c>
     </row>
     <row r="5">
@@ -7834,28 +7834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>686.2566905058674</v>
+        <v>811.6193809139714</v>
       </c>
       <c r="AB5" t="n">
-        <v>938.9666794585753</v>
+        <v>1110.493443086513</v>
       </c>
       <c r="AC5" t="n">
-        <v>849.3530174190597</v>
+        <v>1004.509507465672</v>
       </c>
       <c r="AD5" t="n">
-        <v>686256.6905058674</v>
+        <v>811619.3809139715</v>
       </c>
       <c r="AE5" t="n">
-        <v>938966.6794585753</v>
+        <v>1110493.443086513</v>
       </c>
       <c r="AF5" t="n">
         <v>6.981734183682746e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.24583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>849353.0174190598</v>
+        <v>1004509.507465672</v>
       </c>
     </row>
     <row r="6">
@@ -7940,28 +7940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>686.9189164930747</v>
+        <v>812.2816069011786</v>
       </c>
       <c r="AB6" t="n">
-        <v>939.872766269621</v>
+        <v>1111.399529897559</v>
       </c>
       <c r="AC6" t="n">
-        <v>850.17262857656</v>
+        <v>1005.329118623172</v>
       </c>
       <c r="AD6" t="n">
-        <v>686918.9164930746</v>
+        <v>812281.6069011786</v>
       </c>
       <c r="AE6" t="n">
-        <v>939872.766269621</v>
+        <v>1111399.529897559</v>
       </c>
       <c r="AF6" t="n">
         <v>6.992310004974074e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.20833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>850172.6285765599</v>
+        <v>1005329.118623172</v>
       </c>
     </row>
   </sheetData>
@@ -8237,28 +8237,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2713.332798445745</v>
+        <v>2996.352516515767</v>
       </c>
       <c r="AB2" t="n">
-        <v>3712.501638628477</v>
+        <v>4099.741702840651</v>
       </c>
       <c r="AC2" t="n">
-        <v>3358.18569276641</v>
+        <v>3708.468108745004</v>
       </c>
       <c r="AD2" t="n">
-        <v>2713332.798445744</v>
+        <v>2996352.516515767</v>
       </c>
       <c r="AE2" t="n">
-        <v>3712501.638628477</v>
+        <v>4099741.702840651</v>
       </c>
       <c r="AF2" t="n">
         <v>2.923035721831493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.81666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3358185.69276641</v>
+        <v>3708468.108745004</v>
       </c>
     </row>
     <row r="3">
@@ -8343,28 +8343,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1027.325413088126</v>
+        <v>1173.700617931989</v>
       </c>
       <c r="AB3" t="n">
-        <v>1405.631952585706</v>
+        <v>1605.908965471361</v>
       </c>
       <c r="AC3" t="n">
-        <v>1271.480411847761</v>
+        <v>1452.643267714163</v>
       </c>
       <c r="AD3" t="n">
-        <v>1027325.413088126</v>
+        <v>1173700.617931989</v>
       </c>
       <c r="AE3" t="n">
-        <v>1405631.952585706</v>
+        <v>1605908.965471361</v>
       </c>
       <c r="AF3" t="n">
         <v>5.296920672609786e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>1271480.411847761</v>
+        <v>1452643.267714163</v>
       </c>
     </row>
     <row r="4">
@@ -8449,28 +8449,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>778.8801533944215</v>
+        <v>915.4915122316565</v>
       </c>
       <c r="AB4" t="n">
-        <v>1065.698187641484</v>
+        <v>1252.615875670386</v>
       </c>
       <c r="AC4" t="n">
-        <v>963.9894483297805</v>
+        <v>1133.067974553827</v>
       </c>
       <c r="AD4" t="n">
-        <v>778880.1533944216</v>
+        <v>915491.5122316566</v>
       </c>
       <c r="AE4" t="n">
-        <v>1065698.187641484</v>
+        <v>1252615.875670386</v>
       </c>
       <c r="AF4" t="n">
         <v>6.176792496258052e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.94166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>963989.4483297806</v>
+        <v>1133067.974553827</v>
       </c>
     </row>
     <row r="5">
@@ -8555,28 +8555,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>707.6871914558943</v>
+        <v>834.5698807351389</v>
       </c>
       <c r="AB5" t="n">
-        <v>968.2888363053778</v>
+        <v>1141.895329446427</v>
       </c>
       <c r="AC5" t="n">
-        <v>875.8767087703088</v>
+        <v>1032.91444186422</v>
       </c>
       <c r="AD5" t="n">
-        <v>707687.1914558943</v>
+        <v>834569.8807351389</v>
       </c>
       <c r="AE5" t="n">
-        <v>968288.8363053778</v>
+        <v>1141895.329446428</v>
       </c>
       <c r="AF5" t="n">
         <v>6.480594393409331e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.725</v>
       </c>
       <c r="AH5" t="n">
-        <v>875876.7087703089</v>
+        <v>1032914.44186422</v>
       </c>
     </row>
     <row r="6">
@@ -8661,28 +8661,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>709.6231597403752</v>
+        <v>836.5058490196199</v>
       </c>
       <c r="AB6" t="n">
-        <v>970.9377135210973</v>
+        <v>1144.544206662147</v>
       </c>
       <c r="AC6" t="n">
-        <v>878.2727808622827</v>
+        <v>1035.310513956194</v>
       </c>
       <c r="AD6" t="n">
-        <v>709623.1597403751</v>
+        <v>836505.8490196199</v>
       </c>
       <c r="AE6" t="n">
-        <v>970937.7135210973</v>
+        <v>1144544.206662147</v>
       </c>
       <c r="AF6" t="n">
         <v>6.480978952772814e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.725</v>
       </c>
       <c r="AH6" t="n">
-        <v>878272.7808622827</v>
+        <v>1035310.513956194</v>
       </c>
     </row>
     <row r="7">
@@ -8767,28 +8767,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>710.0788662872461</v>
+        <v>836.9615555664907</v>
       </c>
       <c r="AB7" t="n">
-        <v>971.5612313228802</v>
+        <v>1145.16772446393</v>
       </c>
       <c r="AC7" t="n">
-        <v>878.8367910001759</v>
+        <v>1035.874524094088</v>
       </c>
       <c r="AD7" t="n">
-        <v>710078.8662872461</v>
+        <v>836961.5555664907</v>
       </c>
       <c r="AE7" t="n">
-        <v>971561.2313228801</v>
+        <v>1145167.72446393</v>
       </c>
       <c r="AF7" t="n">
         <v>6.491746614950328e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.68333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>878836.791000176</v>
+        <v>1035874.524094087</v>
       </c>
     </row>
   </sheetData>
@@ -9064,28 +9064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1076.150630533415</v>
+        <v>1247.471820920343</v>
       </c>
       <c r="AB2" t="n">
-        <v>1472.43676911092</v>
+        <v>1706.845979955808</v>
       </c>
       <c r="AC2" t="n">
-        <v>1331.909470444958</v>
+        <v>1543.946995202203</v>
       </c>
       <c r="AD2" t="n">
-        <v>1076150.630533415</v>
+        <v>1247471.820920343</v>
       </c>
       <c r="AE2" t="n">
-        <v>1472436.76911092</v>
+        <v>1706845.979955808</v>
       </c>
       <c r="AF2" t="n">
         <v>5.748606659194934e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.74583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1331909.470444958</v>
+        <v>1543946.995202203</v>
       </c>
     </row>
     <row r="3">
@@ -9170,28 +9170,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>665.6498479329107</v>
+        <v>789.339173984885</v>
       </c>
       <c r="AB3" t="n">
-        <v>910.7714883405233</v>
+        <v>1080.008681032779</v>
       </c>
       <c r="AC3" t="n">
-        <v>823.8487357691154</v>
+        <v>976.9341683167141</v>
       </c>
       <c r="AD3" t="n">
-        <v>665649.8479329107</v>
+        <v>789339.173984885</v>
       </c>
       <c r="AE3" t="n">
-        <v>910771.4883405233</v>
+        <v>1080008.681032779</v>
       </c>
       <c r="AF3" t="n">
         <v>7.604403204749399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.27083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>823848.7357691154</v>
+        <v>976934.1683167141</v>
       </c>
     </row>
     <row r="4">
@@ -9276,28 +9276,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>665.4766937078148</v>
+        <v>789.1660197597893</v>
       </c>
       <c r="AB4" t="n">
-        <v>910.534571090722</v>
+        <v>1079.771763782978</v>
       </c>
       <c r="AC4" t="n">
-        <v>823.6344295691196</v>
+        <v>976.7198621167184</v>
       </c>
       <c r="AD4" t="n">
-        <v>665476.6937078148</v>
+        <v>789166.0197597892</v>
       </c>
       <c r="AE4" t="n">
-        <v>910534.571090722</v>
+        <v>1079771.763782978</v>
       </c>
       <c r="AF4" t="n">
         <v>7.625976659812677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.19583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>823634.4295691196</v>
+        <v>976719.8621167184</v>
       </c>
     </row>
   </sheetData>
@@ -9573,28 +9573,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>739.1810664689672</v>
+        <v>880.1950669986693</v>
       </c>
       <c r="AB2" t="n">
-        <v>1011.38014550997</v>
+        <v>1204.321722133348</v>
       </c>
       <c r="AC2" t="n">
-        <v>914.8554439034472</v>
+        <v>1089.382947249094</v>
       </c>
       <c r="AD2" t="n">
-        <v>739181.0664689671</v>
+        <v>880195.0669986693</v>
       </c>
       <c r="AE2" t="n">
-        <v>1011380.14550997</v>
+        <v>1204321.722133348</v>
       </c>
       <c r="AF2" t="n">
         <v>7.693858378721005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>914855.4439034471</v>
+        <v>1089382.947249094</v>
       </c>
     </row>
     <row r="3">
@@ -9679,28 +9679,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>658.7440699454581</v>
+        <v>790.3571371065136</v>
       </c>
       <c r="AB3" t="n">
-        <v>901.322698236668</v>
+        <v>1081.401503085155</v>
       </c>
       <c r="AC3" t="n">
-        <v>815.3017249313118</v>
+        <v>978.194061387249</v>
       </c>
       <c r="AD3" t="n">
-        <v>658744.0699454581</v>
+        <v>790357.1371065136</v>
       </c>
       <c r="AE3" t="n">
-        <v>901322.698236668</v>
+        <v>1081401.503085155</v>
       </c>
       <c r="AF3" t="n">
         <v>8.217175938843731e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.64166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>815301.7249313118</v>
+        <v>978194.061387249</v>
       </c>
     </row>
     <row r="4">
@@ -9785,28 +9785,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>660.5732745789793</v>
+        <v>792.1863417400347</v>
       </c>
       <c r="AB4" t="n">
-        <v>903.8254967150647</v>
+        <v>1083.904301563551</v>
       </c>
       <c r="AC4" t="n">
-        <v>817.5656598356298</v>
+        <v>980.4579962915672</v>
       </c>
       <c r="AD4" t="n">
-        <v>660573.2745789792</v>
+        <v>792186.3417400346</v>
       </c>
       <c r="AE4" t="n">
-        <v>903825.4967150646</v>
+        <v>1083904.301563551</v>
       </c>
       <c r="AF4" t="n">
         <v>8.226988143096033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.60833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>817565.6598356299</v>
+        <v>980457.9962915671</v>
       </c>
     </row>
   </sheetData>
@@ -17319,28 +17319,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>675.4879831771161</v>
+        <v>815.0774944419007</v>
       </c>
       <c r="AB2" t="n">
-        <v>924.2324590095403</v>
+        <v>1115.224986576628</v>
       </c>
       <c r="AC2" t="n">
-        <v>836.0250102900721</v>
+        <v>1008.789479085853</v>
       </c>
       <c r="AD2" t="n">
-        <v>675487.9831771161</v>
+        <v>815077.4944419008</v>
       </c>
       <c r="AE2" t="n">
-        <v>924232.4590095403</v>
+        <v>1115224.986576627</v>
       </c>
       <c r="AF2" t="n">
         <v>8.64420506842797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.50833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>836025.0102900722</v>
+        <v>1008789.479085853</v>
       </c>
     </row>
     <row r="3">
@@ -17425,28 +17425,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>675.9197118323905</v>
+        <v>815.40773787069</v>
       </c>
       <c r="AB3" t="n">
-        <v>924.8231692022107</v>
+        <v>1115.676840205209</v>
       </c>
       <c r="AC3" t="n">
-        <v>836.5593439310212</v>
+        <v>1009.198208438303</v>
       </c>
       <c r="AD3" t="n">
-        <v>675919.7118323905</v>
+        <v>815407.7378706899</v>
       </c>
       <c r="AE3" t="n">
-        <v>924823.1692022107</v>
+        <v>1115676.840205209</v>
       </c>
       <c r="AF3" t="n">
         <v>8.67420266392039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.40833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>836559.3439310212</v>
+        <v>1009198.208438303</v>
       </c>
     </row>
     <row r="4">
@@ -17531,28 +17531,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>679.1213609688269</v>
+        <v>818.6093870071262</v>
       </c>
       <c r="AB4" t="n">
-        <v>929.203806797474</v>
+        <v>1120.057477800472</v>
       </c>
       <c r="AC4" t="n">
-        <v>840.5218996224562</v>
+        <v>1013.160764129738</v>
       </c>
       <c r="AD4" t="n">
-        <v>679121.3609688269</v>
+        <v>818609.3870071262</v>
       </c>
       <c r="AE4" t="n">
-        <v>929203.806797474</v>
+        <v>1120057.477800472</v>
       </c>
       <c r="AF4" t="n">
         <v>8.67420266392039e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.40833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>840521.8996224562</v>
+        <v>1013160.764129738</v>
       </c>
     </row>
   </sheetData>
@@ -17828,28 +17828,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>776.8613784994352</v>
+        <v>950.0638066722446</v>
       </c>
       <c r="AB2" t="n">
-        <v>1062.936010768101</v>
+        <v>1299.919214145985</v>
       </c>
       <c r="AC2" t="n">
-        <v>961.490889740454</v>
+        <v>1175.856748795967</v>
       </c>
       <c r="AD2" t="n">
-        <v>776861.3784994353</v>
+        <v>950063.8066722446</v>
       </c>
       <c r="AE2" t="n">
-        <v>1062936.010768101</v>
+        <v>1299919.214145985</v>
       </c>
       <c r="AF2" t="n">
         <v>9.179401829537392e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.75</v>
       </c>
       <c r="AH2" t="n">
-        <v>961490.889740454</v>
+        <v>1175856.748795967</v>
       </c>
     </row>
   </sheetData>
@@ -18125,28 +18125,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1515.563687408581</v>
+        <v>1717.558661026362</v>
       </c>
       <c r="AB2" t="n">
-        <v>2073.661099063429</v>
+        <v>2350.039533356578</v>
       </c>
       <c r="AC2" t="n">
-        <v>1875.753794170447</v>
+        <v>2125.755058594226</v>
       </c>
       <c r="AD2" t="n">
-        <v>1515563.687408581</v>
+        <v>1717558.661026362</v>
       </c>
       <c r="AE2" t="n">
-        <v>2073661.09906343</v>
+        <v>2350039.533356578</v>
       </c>
       <c r="AF2" t="n">
         <v>4.43626920514976e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.85416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1875753.794170446</v>
+        <v>2125755.058594226</v>
       </c>
     </row>
     <row r="3">
@@ -18231,28 +18231,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>742.7262020907542</v>
+        <v>877.3781293630142</v>
       </c>
       <c r="AB3" t="n">
-        <v>1016.230756468044</v>
+        <v>1200.467463785727</v>
       </c>
       <c r="AC3" t="n">
-        <v>919.2431193595582</v>
+        <v>1085.896533908684</v>
       </c>
       <c r="AD3" t="n">
-        <v>742726.2020907542</v>
+        <v>877378.1293630141</v>
       </c>
       <c r="AE3" t="n">
-        <v>1016230.756468044</v>
+        <v>1200467.463785727</v>
       </c>
       <c r="AF3" t="n">
         <v>6.76945363660611e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>919243.1193595582</v>
+        <v>1085896.533908684</v>
       </c>
     </row>
     <row r="4">
@@ -18337,28 +18337,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>677.2332313352384</v>
+        <v>802.1974036075766</v>
       </c>
       <c r="AB4" t="n">
-        <v>926.6203845343979</v>
+        <v>1097.601878067602</v>
       </c>
       <c r="AC4" t="n">
-        <v>838.185035554312</v>
+        <v>992.8482953187399</v>
       </c>
       <c r="AD4" t="n">
-        <v>677233.2313352384</v>
+        <v>802197.4036075766</v>
       </c>
       <c r="AE4" t="n">
-        <v>926620.3845343979</v>
+        <v>1097601.878067601</v>
       </c>
       <c r="AF4" t="n">
         <v>7.122650086707257e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.44583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>838185.0355543119</v>
+        <v>992848.29531874</v>
       </c>
     </row>
     <row r="5">
@@ -18443,28 +18443,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>678.0407534049361</v>
+        <v>803.0049256772746</v>
       </c>
       <c r="AB5" t="n">
-        <v>927.7252718555178</v>
+        <v>1098.706765388721</v>
       </c>
       <c r="AC5" t="n">
-        <v>839.1844739802233</v>
+        <v>993.8477337446514</v>
       </c>
       <c r="AD5" t="n">
-        <v>678040.7534049362</v>
+        <v>803004.9256772746</v>
       </c>
       <c r="AE5" t="n">
-        <v>927725.2718555178</v>
+        <v>1098706.765388721</v>
       </c>
       <c r="AF5" t="n">
         <v>7.133524361648794e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.40833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>839184.4739802233</v>
+        <v>993847.7337446513</v>
       </c>
     </row>
   </sheetData>
@@ -18740,28 +18740,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2403.322691385141</v>
+        <v>2656.365754775613</v>
       </c>
       <c r="AB2" t="n">
-        <v>3288.332133467463</v>
+        <v>3634.556816270406</v>
       </c>
       <c r="AC2" t="n">
-        <v>2974.49832985234</v>
+        <v>3287.679814857951</v>
       </c>
       <c r="AD2" t="n">
-        <v>2403322.691385141</v>
+        <v>2656365.754775614</v>
       </c>
       <c r="AE2" t="n">
-        <v>3288332.133467463</v>
+        <v>3634556.816270406</v>
       </c>
       <c r="AF2" t="n">
         <v>3.183217488650778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.44583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2974498.32985234</v>
+        <v>3287679.814857951</v>
       </c>
     </row>
     <row r="3">
@@ -18846,28 +18846,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>967.3206400819361</v>
+        <v>1113.365571976335</v>
       </c>
       <c r="AB3" t="n">
-        <v>1323.530774934883</v>
+        <v>1523.355893800467</v>
       </c>
       <c r="AC3" t="n">
-        <v>1197.214855362207</v>
+        <v>1377.968945339575</v>
       </c>
       <c r="AD3" t="n">
-        <v>967320.640081936</v>
+        <v>1113365.571976335</v>
       </c>
       <c r="AE3" t="n">
-        <v>1323530.774934883</v>
+        <v>1523355.893800467</v>
       </c>
       <c r="AF3" t="n">
         <v>5.539482316958152e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1197214.855362207</v>
+        <v>1377968.945339575</v>
       </c>
     </row>
     <row r="4">
@@ -18952,28 +18952,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>741.5215290071415</v>
+        <v>867.9923180891352</v>
       </c>
       <c r="AB4" t="n">
-        <v>1014.58246960862</v>
+        <v>1187.625382728037</v>
       </c>
       <c r="AC4" t="n">
-        <v>917.7521426846122</v>
+        <v>1074.280083043166</v>
       </c>
       <c r="AD4" t="n">
-        <v>741521.5290071415</v>
+        <v>867992.3180891352</v>
       </c>
       <c r="AE4" t="n">
-        <v>1014582.46960862</v>
+        <v>1187625.382728037</v>
       </c>
       <c r="AF4" t="n">
         <v>6.421853382771338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>917752.1426846122</v>
+        <v>1074280.083043166</v>
       </c>
     </row>
     <row r="5">
@@ -19058,28 +19058,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>699.7880063199361</v>
+        <v>826.3261152096344</v>
       </c>
       <c r="AB5" t="n">
-        <v>957.4808227149068</v>
+        <v>1130.615845765165</v>
       </c>
       <c r="AC5" t="n">
-        <v>866.10019682777</v>
+        <v>1022.711456274643</v>
       </c>
       <c r="AD5" t="n">
-        <v>699788.0063199361</v>
+        <v>826326.1152096344</v>
       </c>
       <c r="AE5" t="n">
-        <v>957480.8227149068</v>
+        <v>1130615.845765165</v>
       </c>
       <c r="AF5" t="n">
         <v>6.595576327577319e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.82916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>866100.19682777</v>
+        <v>1022711.456274643</v>
       </c>
     </row>
     <row r="6">
@@ -19164,28 +19164,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>701.7844801251805</v>
+        <v>828.3225890148788</v>
       </c>
       <c r="AB6" t="n">
-        <v>960.21248625345</v>
+        <v>1133.347509303709</v>
       </c>
       <c r="AC6" t="n">
-        <v>868.5711542321087</v>
+        <v>1025.182413678981</v>
       </c>
       <c r="AD6" t="n">
-        <v>701784.4801251804</v>
+        <v>828322.5890148787</v>
       </c>
       <c r="AE6" t="n">
-        <v>960212.48625345</v>
+        <v>1133347.509303709</v>
       </c>
       <c r="AF6" t="n">
         <v>6.595969365913984e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.82916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>868571.1542321087</v>
+        <v>1025182.413678981</v>
       </c>
     </row>
     <row r="7">
@@ -19270,28 +19270,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>702.4220307773794</v>
+        <v>828.9601396670778</v>
       </c>
       <c r="AB7" t="n">
-        <v>961.0848111825384</v>
+        <v>1134.219834232797</v>
       </c>
       <c r="AC7" t="n">
-        <v>869.3602256942805</v>
+        <v>1025.971485141153</v>
       </c>
       <c r="AD7" t="n">
-        <v>702422.0307773794</v>
+        <v>828960.1396670778</v>
       </c>
       <c r="AE7" t="n">
-        <v>961084.8111825384</v>
+        <v>1134219.834232797</v>
       </c>
       <c r="AF7" t="n">
         <v>6.606581401003943e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.7875</v>
       </c>
       <c r="AH7" t="n">
-        <v>869360.2256942806</v>
+        <v>1025971.485141153</v>
       </c>
     </row>
   </sheetData>
@@ -19567,28 +19567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>911.6097495202175</v>
+        <v>1119.257979329391</v>
       </c>
       <c r="AB2" t="n">
-        <v>1247.304676677311</v>
+        <v>1531.418145495585</v>
       </c>
       <c r="AC2" t="n">
-        <v>1128.263668938336</v>
+        <v>1385.261747048352</v>
       </c>
       <c r="AD2" t="n">
-        <v>911609.7495202175</v>
+        <v>1119257.979329391</v>
       </c>
       <c r="AE2" t="n">
-        <v>1247304.676677311</v>
+        <v>1531418.145495585</v>
       </c>
       <c r="AF2" t="n">
         <v>8.877598440759116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.75833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1128263.668938336</v>
+        <v>1385261.747048352</v>
       </c>
     </row>
   </sheetData>
@@ -19864,28 +19864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>846.5637660226967</v>
+        <v>997.5520065644437</v>
       </c>
       <c r="AB2" t="n">
-        <v>1158.305892429738</v>
+        <v>1364.89466427001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1047.758803748774</v>
+        <v>1234.631033153773</v>
       </c>
       <c r="AD2" t="n">
-        <v>846563.7660226966</v>
+        <v>997552.0065644437</v>
       </c>
       <c r="AE2" t="n">
-        <v>1158305.892429738</v>
+        <v>1364894.664270011</v>
       </c>
       <c r="AF2" t="n">
         <v>6.948038886758051e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.175</v>
       </c>
       <c r="AH2" t="n">
-        <v>1047758.803748774</v>
+        <v>1234631.033153773</v>
       </c>
     </row>
     <row r="3">
@@ -19970,28 +19970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>664.0372946963361</v>
+        <v>796.1393195170542</v>
       </c>
       <c r="AB3" t="n">
-        <v>908.565121861414</v>
+        <v>1089.312940151141</v>
       </c>
       <c r="AC3" t="n">
-        <v>821.8529418101176</v>
+        <v>985.3504420034292</v>
       </c>
       <c r="AD3" t="n">
-        <v>664037.294696336</v>
+        <v>796139.3195170542</v>
       </c>
       <c r="AE3" t="n">
-        <v>908565.1218614141</v>
+        <v>1089312.940151141</v>
       </c>
       <c r="AF3" t="n">
         <v>7.996534654720868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.0875</v>
       </c>
       <c r="AH3" t="n">
-        <v>821852.9418101176</v>
+        <v>985350.4420034292</v>
       </c>
     </row>
     <row r="4">
@@ -20076,28 +20076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>665.5502478835372</v>
+        <v>788.2774956813025</v>
       </c>
       <c r="AB4" t="n">
-        <v>910.6352111589266</v>
+        <v>1078.556045939877</v>
       </c>
       <c r="AC4" t="n">
-        <v>823.725464690464</v>
+        <v>975.6201706782922</v>
       </c>
       <c r="AD4" t="n">
-        <v>665550.2478835372</v>
+        <v>788277.4956813025</v>
       </c>
       <c r="AE4" t="n">
-        <v>910635.2111589266</v>
+        <v>1078556.045939877</v>
       </c>
       <c r="AF4" t="n">
         <v>8.006931241413607e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.05</v>
       </c>
       <c r="AH4" t="n">
-        <v>823725.4646904641</v>
+        <v>975620.1706782922</v>
       </c>
     </row>
     <row r="5">
@@ -20182,28 +20182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>667.0798316221808</v>
+        <v>789.807079419946</v>
       </c>
       <c r="AB5" t="n">
-        <v>912.7280551106107</v>
+        <v>1080.648889891561</v>
       </c>
       <c r="AC5" t="n">
-        <v>825.6185705527245</v>
+        <v>977.5132765405525</v>
       </c>
       <c r="AD5" t="n">
-        <v>667079.8316221808</v>
+        <v>789807.0794199461</v>
       </c>
       <c r="AE5" t="n">
-        <v>912728.0551106108</v>
+        <v>1080648.889891561</v>
       </c>
       <c r="AF5" t="n">
         <v>8.01680799877171e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.01666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>825618.5705527244</v>
+        <v>977513.2765405525</v>
       </c>
     </row>
   </sheetData>
@@ -20479,28 +20479,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1209.577334385408</v>
+        <v>1391.087179999949</v>
       </c>
       <c r="AB2" t="n">
-        <v>1654.997071691953</v>
+        <v>1903.346850111005</v>
       </c>
       <c r="AC2" t="n">
-        <v>1497.046473972651</v>
+        <v>1721.694098100492</v>
       </c>
       <c r="AD2" t="n">
-        <v>1209577.334385409</v>
+        <v>1391087.179999949</v>
       </c>
       <c r="AE2" t="n">
-        <v>1654997.071691953</v>
+        <v>1903346.850111005</v>
       </c>
       <c r="AF2" t="n">
         <v>5.261046565352689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.6625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1497046.473972651</v>
+        <v>1721694.098100492</v>
       </c>
     </row>
     <row r="3">
@@ -20585,28 +20585,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>674.9266286404523</v>
+        <v>799.0736321713364</v>
       </c>
       <c r="AB3" t="n">
-        <v>923.4643889672624</v>
+        <v>1093.327796177468</v>
       </c>
       <c r="AC3" t="n">
-        <v>835.3302437746364</v>
+        <v>988.9821258054892</v>
       </c>
       <c r="AD3" t="n">
-        <v>674926.6286404524</v>
+        <v>799073.6321713363</v>
       </c>
       <c r="AE3" t="n">
-        <v>923464.3889672623</v>
+        <v>1093327.796177468</v>
       </c>
       <c r="AF3" t="n">
         <v>7.411104747304408e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.025</v>
       </c>
       <c r="AH3" t="n">
-        <v>835330.2437746364</v>
+        <v>988982.1258054893</v>
       </c>
     </row>
     <row r="4">
@@ -20691,28 +20691,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>662.405294269518</v>
+        <v>796.1062347196671</v>
       </c>
       <c r="AB4" t="n">
-        <v>906.3321468786643</v>
+        <v>1089.267672071758</v>
       </c>
       <c r="AC4" t="n">
-        <v>819.8330788257211</v>
+        <v>985.3094942460079</v>
       </c>
       <c r="AD4" t="n">
-        <v>662405.294269518</v>
+        <v>796106.2347196671</v>
       </c>
       <c r="AE4" t="n">
-        <v>906332.1468786643</v>
+        <v>1089267.672071758</v>
       </c>
       <c r="AF4" t="n">
         <v>7.449986316149175e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.8875</v>
       </c>
       <c r="AH4" t="n">
-        <v>819833.0788257212</v>
+        <v>985309.494246008</v>
       </c>
     </row>
     <row r="5">
@@ -20797,28 +20797,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>664.4678589852504</v>
+        <v>798.1687994353995</v>
       </c>
       <c r="AB5" t="n">
-        <v>909.1542389166625</v>
+        <v>1092.089764109756</v>
       </c>
       <c r="AC5" t="n">
-        <v>822.3858343604437</v>
+        <v>987.8622497807307</v>
       </c>
       <c r="AD5" t="n">
-        <v>664467.8589852504</v>
+        <v>798168.7994353995</v>
       </c>
       <c r="AE5" t="n">
-        <v>909154.2389166625</v>
+        <v>1092089.764109756</v>
       </c>
       <c r="AF5" t="n">
         <v>7.450449191968756e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.8875</v>
       </c>
       <c r="AH5" t="n">
-        <v>822385.8343604438</v>
+        <v>987862.2497807307</v>
       </c>
     </row>
   </sheetData>
